--- a/doc/excel-killer/test.xlsx
+++ b/doc/excel-killer/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13545" windowHeight="7530"/>
+    <workbookView windowWidth="15870" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="putCardSound" sheetId="1" r:id="rId1"/>
@@ -1351,10 +1351,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1372,7 +1372,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1380,36 +1387,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1431,24 +1408,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1468,6 +1437,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1476,10 +1454,33 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1499,7 +1500,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1560,7 +1560,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1572,19 +1578,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1596,13 +1620,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1620,13 +1638,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1638,13 +1662,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1656,7 +1722,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1668,73 +1734,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1772,21 +1772,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1817,20 +1802,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1846,6 +1828,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1868,10 +1868,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1880,19 +1880,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1901,112 +1901,112 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/doc/excel-killer/test.xlsx
+++ b/doc/excel-killer/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15870" windowHeight="7530"/>
+    <workbookView windowWidth="8175" windowHeight="4200"/>
   </bookViews>
   <sheets>
     <sheet name="putCardSound" sheetId="1" r:id="rId1"/>
@@ -1352,9 +1352,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1372,13 +1372,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1386,22 +1379,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1414,10 +1400,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1429,9 +1469,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1447,22 +1502,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1470,46 +1509,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1560,7 +1560,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1572,13 +1602,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1596,19 +1692,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1620,49 +1710,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1674,67 +1728,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1759,30 +1759,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1817,17 +1793,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1836,7 +1806,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1860,6 +1830,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1868,10 +1868,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1880,16 +1880,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1898,115 +1898,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2406,9 +2406,9 @@
   <dimension ref="A1:F152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5475,7 +5475,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
+      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -7459,7 +7459,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
